--- a/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -37,22 +37,7 @@
     <t xml:space="preserve">ADMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">arlie_rutherford40@leonardo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vicky82@leonardo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdsadsad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tianna.rice@leonardo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsadsad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amelia_lynch@leonardo.com</t>
+    <t xml:space="preserve">t23458789@jello.com</t>
   </si>
 </sst>
 </file>
@@ -62,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -104,12 +89,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,11 +150,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,13 +186,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
@@ -233,61 +216,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="arlie_rutherford40@leonardo.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="vicky82@leonardo.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="vicky82@leonardo.com"/>
-    <hyperlink ref="E2" r:id="rId4" display="vicky82@leonardo.com"/>
-    <hyperlink ref="A3" r:id="rId5" display="tianna.rice@leonardo.com"/>
-    <hyperlink ref="D3" r:id="rId6" display="tianna.rice@leonardo.com"/>
-    <hyperlink ref="C6" r:id="rId7" display="amelia_lynch@leonardo.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="t23458789@jello.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
@@ -37,7 +37,44 @@
     <t xml:space="preserve">ADMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">t23458789@jello.com</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rhiannon85@leonardo.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">619e3193f235dc001846bb4f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -47,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -84,11 +121,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,19 +188,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,13 +233,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -215,32 +265,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="7"/>
-    </row>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="t23458789@jello.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="rhiannon85@leonardo.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
@@ -37,44 +37,7 @@
     <t xml:space="preserve">ADMIN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rhiannon85@leonardo.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">619e3193f235dc001846bb4f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">frederic_borer@leonardo.com</t>
   </si>
 </sst>
 </file>
@@ -84,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,12 +82,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,27 +145,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,10 +193,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -268,42 +225,46 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="5"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="rhiannon85@leonardo.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="frederic_borer@leonardo.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -37,7 +37,16 @@
     <t xml:space="preserve">ADMIN</t>
   </si>
   <si>
+    <t xml:space="preserve">t23458789@jello.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">frederic_borer@leonardo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t23458789@jello.com,619e320ff235dc001846faef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t23458789@jello.com,619e31fef235dc001846f10b</t>
   </si>
 </sst>
 </file>
@@ -145,22 +154,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +176,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -196,7 +205,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -223,48 +232,66 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="frederic_borer@leonardo.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="t23458789@jello.com"/>
+    <hyperlink ref="E3" r:id="rId3" display="t23458789@jello.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/AISExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">t23458789@jello.com,619e320ff235dc001846faef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t23458789@jello.com,619e31fef235dc001846f10b</t>
   </si>
 </sst>
 </file>
@@ -56,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -91,12 +88,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,10 +150,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,10 +189,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -255,15 +242,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,27 +256,26 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="frederic_borer@leonardo.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="t23458789@jello.com"/>
-    <hyperlink ref="E3" r:id="rId3" display="t23458789@jello.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="t23458789@jello.com,619e320ff235dc001846faef"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
